--- a/biology/Médecine/Envole-moi_(film,_2021)/Envole-moi_(film,_2021).xlsx
+++ b/biology/Médecine/Envole-moi_(film,_2021)/Envole-moi_(film,_2021).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Envole-moi est un film franco-italien[1] réalisé par Christophe Barratier et co-écrit avec Matthieu Delaporte, Anthony Marciano et Alexandre de La Patellière. Sorti en 2021, il s'agit de l'adaptation du roman allemand Dieses bescheuerte Herz: Über den Mut zu träumen de Lars Amend et Daniel Meyer (2013)[2], déjà porté à l'écran dans le film Dieses bescheuerte Herz de Marc Rothemund (2017).
-Il est sélectionné et présenté à la sélection officielle du festival international du film de comédie de l'Alpe d'Huez dans la même année, avant d'être annulé en raison de la crise sanitaire de la COVID-19[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Envole-moi est un film franco-italien réalisé par Christophe Barratier et co-écrit avec Matthieu Delaporte, Anthony Marciano et Alexandre de La Patellière. Sorti en 2021, il s'agit de l'adaptation du roman allemand Dieses bescheuerte Herz: Über den Mut zu träumen de Lars Amend et Daniel Meyer (2013), déjà porté à l'écran dans le film Dieses bescheuerte Herz de Marc Rothemund (2017).
+Il est sélectionné et présenté à la sélection officielle du festival international du film de comédie de l'Alpe d'Huez dans la même année, avant d'être annulé en raison de la crise sanitaire de la COVID-19.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thomas, âgé de 29 ans, passe quasiment toutes ses nuits en discothèque et ses journées à dormir. Lassé de cette situation, son père chirurgien — le docteur Reinhard — décide de ne plus lui donner d'argent. Il lui impose par ailleurs de s'occuper de l'un de ses jeunes patients. Marcus, âgé de 12 ans, vit seul avec sa mère Maissa, souffre d'une grave maladie et est en situation de polyhandicap. Sa vie est rythmée par son quotidien en centre d'accueil médicalisé et ses fréquents séjours à l'hôpital[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas, âgé de 29 ans, passe quasiment toutes ses nuits en discothèque et ses journées à dormir. Lassé de cette situation, son père chirurgien — le docteur Reinhard — décide de ne plus lui donner d'argent. Il lui impose par ailleurs de s'occuper de l'un de ses jeunes patients. Marcus, âgé de 12 ans, vit seul avec sa mère Maissa, souffre d'une grave maladie et est en situation de polyhandicap. Sa vie est rythmée par son quotidien en centre d'accueil médicalisé et ses fréquents séjours à l'hôpital.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 Titre original : Envole-moi
@@ -594,7 +610,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Victor Belmondo : Thomas Reinhard
 Gérard Lanvin : Dr Henri Reinhard
@@ -634,11 +652,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film s'inspire d'une histoire vraie, déjà portée, en Allemagne, en roman allemand Dieses bescheuerte Herz: Über den Mut zu träumen de Lars Amend et Daniel Meyer (2013) et à l'écran dans le film Dieses bescheuerte Herz de Marc Rothemund (2017). L'adaptation est initialement développée par Alexandre de La Patellière et Matthieu Delaporte. Christophe Barratier rejoint ensuite le projet[5].
-Tournage
-Le tournage commence en février 2020, mais est stoppé en mars en raison de la pandémie de Covid-19[5],[6]. Il a lieu notamment à Paris[7], ainsi qu'à La Baule-Escoublac[5] (à l’hôtel Hermitage et sur la plage) et dans les marais salants de Batz-sur-Mer[8] en Loire-Atlantique.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film s'inspire d'une histoire vraie, déjà portée, en Allemagne, en roman allemand Dieses bescheuerte Herz: Über den Mut zu träumen de Lars Amend et Daniel Meyer (2013) et à l'écran dans le film Dieses bescheuerte Herz de Marc Rothemund (2017). L'adaptation est initialement développée par Alexandre de La Patellière et Matthieu Delaporte. Christophe Barratier rejoint ensuite le projet.
 </t>
         </is>
       </c>
@@ -664,12 +682,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Musique</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Envole-moi de Jean-Jacques Goldman (chantée par Marcus et Thomas sur la scène de la boite de nuit).</t>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage commence en février 2020, mais est stoppé en mars en raison de la pandémie de Covid-19,. Il a lieu notamment à Paris, ainsi qu'à La Baule-Escoublac (à l’hôtel Hermitage et sur la plage) et dans les marais salants de Batz-sur-Mer en Loire-Atlantique.
+</t>
         </is>
       </c>
     </row>
@@ -694,13 +719,47 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Envole-moi de Jean-Jacques Goldman (chantée par Marcus et Thomas sur la scène de la boite de nuit).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Envole-moi_(film,_2021)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Envole-moi_(film,_2021)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Envole-moi est sélectionné et présenté à la sélection officielle du festival international du film de comédie de l'Alpe d'Huez en janvier 2021[9]. En raison de la crise sanitaire de la COVID-19, cet événement est annulé[3]. Il sort le 19 mai 2021 en France et en Suisse romande, ainsi qu'en Belgique, le 9 juin 2021, et au Québec, le 20 août 2021.
-Box-office</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Envole-moi est sélectionné et présenté à la sélection officielle du festival international du film de comédie de l'Alpe d'Huez en janvier 2021. En raison de la crise sanitaire de la COVID-19, cet événement est annulé. Il sort le 19 mai 2021 en France et en Suisse romande, ainsi qu'en Belgique, le 9 juin 2021, et au Québec, le 20 août 2021.
+</t>
         </is>
       </c>
     </row>
